--- a/Calculs/PH3/DataBase_PH3_FileA_V6.xlsx
+++ b/Calculs/PH3/DataBase_PH3_FileA_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA242589-B329-4D61-87E7-4C896DA13E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EAA742-0D34-4156-A07B-181580B7D09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -711,9 +711,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1098,11 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AQ74"/>
+  <dimension ref="A1:AQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y59" sqref="Y59:AF67"/>
+      <selection pane="topRight" activeCell="Y65" sqref="Y65:Z67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1382,32 +1379,30 @@
         <v>0</v>
       </c>
       <c r="Y3" s="9">
-        <f t="shared" si="0"/>
-        <v>29.253119999999999</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" si="1"/>
-        <v>8.8857599999999994</v>
+        <v>9</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
       <c r="AB3" s="9">
         <f t="shared" si="2"/>
-        <v>29.253119999999999</v>
+        <v>22</v>
       </c>
       <c r="AC3" s="9">
         <f t="shared" si="3"/>
-        <v>8.8857599999999994</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="8">
         <f t="shared" si="4"/>
-        <v>52.820352</v>
+        <v>43.2</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="9">
         <f t="shared" si="5"/>
-        <v>38.13888</v>
+        <v>31</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -1487,32 +1482,30 @@
         <v>0</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4:Y7" si="8">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),V4+X4*V4,IF(A3&lt;A4,V4-X5*V5/2,IF(A4&lt;A5,V4-(X3*V3)/2,V4-(X5*V5+X3*V3)/2))),0)</f>
-        <v>80.574999999999989</v>
+        <v>75</v>
       </c>
       <c r="Z4" s="9">
-        <f t="shared" ref="Z4:Z7" si="9">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),W4+X4*W4,IF(A3&lt;A4,W4-X5*W5/2,IF(A4&lt;A5,W4-(X3*W3)/2,W4-(X5*W5+X3*W3)/2))),0)</f>
-        <v>24.474999999999998</v>
+        <v>24</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="9">
-        <f t="shared" ref="AB4:AB5" si="10">Y4*(1-AA4)</f>
-        <v>80.574999999999989</v>
+        <f t="shared" ref="AB4:AB5" si="8">Y4*(1-AA4)</f>
+        <v>75</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" ref="AC4:AC5" si="11">Y4*AA4 + Z4</f>
-        <v>24.474999999999998</v>
+        <f t="shared" ref="AC4:AC5" si="9">Y4*AA4 + Z4</f>
+        <v>24</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" ref="AD4:AD5" si="12">1.35*Y4+1.5*Z4</f>
-        <v>145.48874999999998</v>
+        <f t="shared" ref="AD4:AD5" si="10">1.35*Y4+1.5*Z4</f>
+        <v>137.25</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF5" si="13">AB4+AC4</f>
-        <v>105.04999999999998</v>
+        <f t="shared" ref="AF4:AF5" si="11">AB4+AC4</f>
+        <v>99</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -1589,36 +1582,34 @@
         <v>9.3414400000000004</v>
       </c>
       <c r="X5" s="7" t="str">
-        <f t="shared" ref="X5" si="14">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X5" si="12">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y5" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
         <f t="shared" si="8"/>
-        <v>30.75328</v>
-      </c>
-      <c r="Z5" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="AC5" s="9">
         <f t="shared" si="9"/>
-        <v>9.3414400000000004</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AD5" s="8">
         <f t="shared" si="10"/>
-        <v>30.75328</v>
-      </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="11"/>
-        <v>9.3414400000000004</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="12"/>
-        <v>55.529088000000002</v>
+        <v>46.56</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="9">
-        <f t="shared" si="13"/>
-        <v>40.094720000000002</v>
+        <f t="shared" si="11"/>
+        <v>33.400000000000006</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -1698,32 +1689,30 @@
         <v>0</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" si="8"/>
-        <v>58.014000000000003</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="9">
-        <f t="shared" si="9"/>
-        <v>17.622000000000003</v>
+        <v>19</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
       <c r="AB6" s="9">
-        <f t="shared" ref="AB6:AB7" si="15">Y6*(1-AA6)</f>
-        <v>58.014000000000003</v>
+        <f t="shared" ref="AB6:AB7" si="13">Y6*(1-AA6)</f>
+        <v>60</v>
       </c>
       <c r="AC6" s="9">
-        <f t="shared" ref="AC6:AC7" si="16">Y6*AA6 + Z6</f>
-        <v>17.622000000000003</v>
+        <f t="shared" ref="AC6:AC7" si="14">Y6*AA6 + Z6</f>
+        <v>19</v>
       </c>
       <c r="AD6" s="8">
-        <f t="shared" ref="AD6:AD7" si="17">1.35*Y6+1.5*Z6</f>
-        <v>104.75190000000002</v>
+        <f t="shared" ref="AD6:AD7" si="15">1.35*Y6+1.5*Z6</f>
+        <v>109.5</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="9">
-        <f t="shared" ref="AF6:AF7" si="18">AB6+AC6</f>
-        <v>75.63600000000001</v>
+        <f t="shared" ref="AF6:AF7" si="16">AB6+AC6</f>
+        <v>79</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1800,31 +1789,31 @@
         <v>48</v>
       </c>
       <c r="Y7" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="Y4:Y7" si="17">IFERROR(IF(ISNUMBER(SEARCH("Appui",C7)),V7+X7*V7,IF(A6&lt;A7,V7-X8*V8/2,IF(A7&lt;A8,V7-(X6*V6)/2,V7-(X8*V8+X6*V6)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="Z4:Z7" si="18">IFERROR(IF(ISNUMBER(SEARCH("Appui",C7)),W7+X7*W7,IF(A6&lt;A7,W7-X8*W8/2,IF(A7&lt;A8,W7-(X6*W6)/2,W7-(X8*W8+X6*W6)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
       </c>
       <c r="AB7" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AP7" s="2"/>
@@ -1902,31 +1891,31 @@
         <v>48</v>
       </c>
       <c r="Y8" s="9">
-        <f t="shared" ref="Y8:Y67" si="19">IFERROR(IF(ISNUMBER(SEARCH("Appui",C8)),V8+X8*V8,IF(A7&lt;A8,V8-X9*V9/2,IF(A8&lt;A9,V8-(X7*V7)/2,V8-(X9*V9+X7*V7)/2))),0)</f>
+        <f t="shared" ref="Y8:Y58" si="19">IFERROR(IF(ISNUMBER(SEARCH("Appui",C8)),V8+X8*V8,IF(A7&lt;A8,V8-X9*V9/2,IF(A8&lt;A9,V8-(X7*V7)/2,V8-(X9*V9+X7*V7)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="9">
-        <f t="shared" ref="Z8:Z67" si="20">IFERROR(IF(ISNUMBER(SEARCH("Appui",C8)),W8+X8*W8,IF(A7&lt;A8,W8-X9*W9/2,IF(A8&lt;A9,W8-(X7*W7)/2,W8-(X9*W9+X7*W7)/2))),0)</f>
+        <f t="shared" ref="Z8:Z58" si="20">IFERROR(IF(ISNUMBER(SEARCH("Appui",C8)),W8+X8*W8,IF(A7&lt;A8,W8-X9*W9/2,IF(A8&lt;A9,W8-(X7*W7)/2,W8-(X9*W9+X7*W7)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
       <c r="AB8" s="9">
-        <f t="shared" ref="AB8:AB67" si="21">Y8*(1-AA8)</f>
+        <f t="shared" ref="AB8:AB59" si="21">Y8*(1-AA8)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="9">
-        <f t="shared" ref="AC8:AC67" si="22">Y8*AA8 + Z8</f>
+        <f t="shared" ref="AC8:AC59" si="22">Y8*AA8 + Z8</f>
         <v>0</v>
       </c>
       <c r="AD8" s="8">
-        <f t="shared" ref="AD8:AD67" si="23">1.35*Y8+1.5*Z8</f>
+        <f t="shared" ref="AD8:AD59" si="23">1.35*Y8+1.5*Z8</f>
         <v>0</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="9">
-        <f t="shared" ref="AF8:AF67" si="24">AB8+AC8</f>
+        <f t="shared" ref="AF8:AF59" si="24">AB8+AC8</f>
         <v>0</v>
       </c>
       <c r="AP8" s="2"/>
@@ -2008,32 +1997,30 @@
         <v>0</v>
       </c>
       <c r="Y9" s="9">
-        <f t="shared" si="19"/>
-        <v>30.0032</v>
+        <v>22.3</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" si="20"/>
-        <v>9.1135999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
       <c r="AB9" s="9">
         <f t="shared" si="21"/>
-        <v>30.0032</v>
+        <v>22.3</v>
       </c>
       <c r="AC9" s="9">
         <f t="shared" si="22"/>
-        <v>9.1135999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="23"/>
-        <v>54.174720000000001</v>
+        <v>45.555000000000007</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="9">
         <f t="shared" si="24"/>
-        <v>39.116799999999998</v>
+        <v>32.6</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
@@ -2112,32 +2099,30 @@
         <v>0</v>
       </c>
       <c r="Y10" s="9">
-        <f t="shared" si="19"/>
-        <v>96.69</v>
+        <v>92.5</v>
       </c>
       <c r="Z10" s="9">
-        <f t="shared" si="20"/>
-        <v>29.369999999999997</v>
+        <v>31</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
       <c r="AB10" s="9">
         <f t="shared" si="21"/>
-        <v>96.69</v>
+        <v>92.5</v>
       </c>
       <c r="AC10" s="9">
         <f t="shared" si="22"/>
-        <v>29.369999999999997</v>
+        <v>31</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="23"/>
-        <v>174.5865</v>
+        <v>171.375</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="9">
         <f t="shared" si="24"/>
-        <v>126.06</v>
+        <v>123.5</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
@@ -2218,32 +2203,30 @@
         <v>0</v>
       </c>
       <c r="Y11" s="9">
-        <f t="shared" si="19"/>
-        <v>52.505600000000001</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="20"/>
-        <v>15.9488</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AA11" s="3">
         <v>0</v>
       </c>
       <c r="AB11" s="9">
         <f t="shared" si="21"/>
-        <v>52.505600000000001</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AC11" s="9">
         <f t="shared" si="22"/>
-        <v>15.9488</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="23"/>
-        <v>94.805760000000021</v>
+        <v>79.095000000000013</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="9">
         <f t="shared" si="24"/>
-        <v>68.454400000000007</v>
+        <v>56.800000000000004</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
@@ -2322,32 +2305,30 @@
         <v>0</v>
       </c>
       <c r="Y12" s="9">
-        <f t="shared" si="19"/>
-        <v>70.906000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="Z12" s="9">
-        <f t="shared" si="20"/>
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="21"/>
-        <v>70.906000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="AC12" s="9">
         <f t="shared" si="22"/>
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="23"/>
-        <v>128.0301</v>
+        <v>148.125</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="9">
         <f t="shared" si="24"/>
-        <v>92.444000000000003</v>
+        <v>106.5</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -2428,32 +2409,30 @@
         <v>0</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" si="19"/>
-        <v>5.3671740000000003</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="20"/>
-        <v>1.6303019999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AA13" s="3">
         <v>0</v>
       </c>
       <c r="AB13" s="9">
         <f t="shared" si="21"/>
-        <v>5.3671740000000003</v>
+        <v>4</v>
       </c>
       <c r="AC13" s="9">
         <f t="shared" si="22"/>
-        <v>1.6303019999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="23"/>
-        <v>9.6911379000000011</v>
+        <v>15.15</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="9">
         <f t="shared" si="24"/>
-        <v>6.9974760000000007</v>
+        <v>10.5</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
@@ -2533,32 +2512,30 @@
         <v>0.05</v>
       </c>
       <c r="Y14" s="9">
-        <f t="shared" si="19"/>
-        <v>20.304899999999996</v>
+        <v>20</v>
       </c>
       <c r="Z14" s="9">
-        <f t="shared" si="20"/>
-        <v>6.1677</v>
+        <v>13</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="9">
         <f t="shared" si="21"/>
-        <v>20.304899999999996</v>
+        <v>20</v>
       </c>
       <c r="AC14" s="9">
         <f t="shared" si="22"/>
-        <v>6.1677</v>
+        <v>13</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="23"/>
-        <v>36.663164999999999</v>
+        <v>46.5</v>
       </c>
       <c r="AE14" s="8"/>
       <c r="AF14" s="9">
         <f t="shared" si="24"/>
-        <v>26.472599999999996</v>
+        <v>33</v>
       </c>
       <c r="AP14" s="2"/>
     </row>
@@ -2638,32 +2615,30 @@
         <v>0</v>
       </c>
       <c r="Y15" s="9">
-        <f t="shared" si="19"/>
-        <v>4.1400899999999989</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="9">
-        <f t="shared" si="20"/>
-        <v>1.2575699999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="21"/>
-        <v>4.1400899999999989</v>
+        <v>5</v>
       </c>
       <c r="AC15" s="9">
         <f t="shared" si="22"/>
-        <v>1.2575699999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="23"/>
-        <v>7.4754764999999992</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="9">
         <f t="shared" si="24"/>
-        <v>5.3976599999999983</v>
+        <v>11.5</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
@@ -2743,32 +2718,30 @@
         <v>0.06</v>
       </c>
       <c r="Y16" s="9">
-        <f t="shared" si="19"/>
-        <v>75.160360000000011</v>
+        <v>61.5</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" si="20"/>
-        <v>22.830280000000002</v>
+        <v>24</v>
       </c>
       <c r="AA16" s="3">
         <v>0</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="21"/>
-        <v>75.160360000000011</v>
+        <v>61.5</v>
       </c>
       <c r="AC16" s="9">
         <f t="shared" si="22"/>
-        <v>22.830280000000002</v>
+        <v>24</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="23"/>
-        <v>135.71190600000003</v>
+        <v>119.02500000000001</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="9">
         <f t="shared" si="24"/>
-        <v>97.990640000000013</v>
+        <v>85.5</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
@@ -2849,32 +2822,30 @@
         <v>0</v>
       </c>
       <c r="Y17" s="9">
-        <f t="shared" si="19"/>
-        <v>40.627380000000002</v>
+        <v>32.6</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" si="20"/>
-        <v>12.34074</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="21"/>
-        <v>40.627380000000002</v>
+        <v>32.6</v>
       </c>
       <c r="AC17" s="9">
         <f t="shared" si="22"/>
-        <v>12.34074</v>
+        <v>15.5</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="23"/>
-        <v>73.358073000000019</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="9">
         <f t="shared" si="24"/>
-        <v>52.968119999999999</v>
+        <v>48.1</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
@@ -2952,32 +2923,30 @@
       </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="9">
-        <f t="shared" si="19"/>
-        <v>93.466999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="20"/>
-        <v>28.390999999999998</v>
+        <v>30.5</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
       <c r="AB18" s="9">
         <f t="shared" si="21"/>
-        <v>93.466999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="AC18" s="9">
         <f t="shared" si="22"/>
-        <v>28.390999999999998</v>
+        <v>30.5</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="23"/>
-        <v>168.76695000000001</v>
+        <v>163.875</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="9">
         <f t="shared" si="24"/>
-        <v>121.858</v>
+        <v>118</v>
       </c>
       <c r="AP18" s="2"/>
     </row>
@@ -3057,32 +3026,30 @@
         <v>0</v>
       </c>
       <c r="Y19" s="9">
-        <f t="shared" si="19"/>
-        <v>33.753599999999999</v>
+        <v>25</v>
       </c>
       <c r="Z19" s="9">
-        <f t="shared" si="20"/>
-        <v>10.252800000000001</v>
+        <v>10</v>
       </c>
       <c r="AA19" s="3">
         <v>0</v>
       </c>
       <c r="AB19" s="9">
         <f t="shared" si="21"/>
-        <v>33.753599999999999</v>
+        <v>25</v>
       </c>
       <c r="AC19" s="9">
         <f t="shared" si="22"/>
-        <v>10.252800000000001</v>
+        <v>10</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="23"/>
-        <v>60.946560000000005</v>
+        <v>48.75</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="9">
         <f t="shared" si="24"/>
-        <v>44.006399999999999</v>
+        <v>35</v>
       </c>
       <c r="AP19" s="2"/>
     </row>
@@ -3262,32 +3229,30 @@
         <v>0</v>
       </c>
       <c r="Y21" s="9">
-        <f t="shared" si="19"/>
-        <v>27.752959999999998</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Z21" s="9">
-        <f t="shared" si="20"/>
-        <v>8.4300800000000002</v>
+        <v>10</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
       <c r="AB21" s="9">
         <f t="shared" si="21"/>
-        <v>27.752959999999998</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="AC21" s="9">
         <f t="shared" si="22"/>
-        <v>8.4300800000000002</v>
+        <v>10</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="23"/>
-        <v>50.111615999999998</v>
+        <v>42.54</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="9">
         <f t="shared" si="24"/>
-        <v>36.183039999999998</v>
+        <v>30.4</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
@@ -3367,32 +3332,30 @@
         <v>0</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="19"/>
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" si="20"/>
-        <v>29.369999999999997</v>
+        <v>33</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="9">
         <f t="shared" si="21"/>
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="AC22" s="9">
         <f t="shared" si="22"/>
-        <v>29.369999999999997</v>
+        <v>33</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="23"/>
-        <v>174.5865</v>
+        <v>181.125</v>
       </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="9">
         <f t="shared" si="24"/>
-        <v>126.06</v>
+        <v>130.5</v>
       </c>
       <c r="AP22" s="2"/>
     </row>
@@ -3471,32 +3434,30 @@
         <v>-0.1</v>
       </c>
       <c r="Y23" s="9">
-        <f t="shared" si="19"/>
-        <v>56.256</v>
+        <v>43.2</v>
       </c>
       <c r="Z23" s="9">
-        <f t="shared" si="20"/>
-        <v>17.088000000000001</v>
+        <v>16</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="9">
         <f t="shared" si="21"/>
-        <v>56.256</v>
+        <v>43.2</v>
       </c>
       <c r="AC23" s="9">
         <f t="shared" si="22"/>
-        <v>17.088000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="23"/>
-        <v>101.5776</v>
+        <v>82.320000000000007</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="9">
         <f t="shared" si="24"/>
-        <v>73.343999999999994</v>
+        <v>59.2</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
@@ -3576,32 +3537,30 @@
         <v>0</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="19"/>
-        <v>70.906000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="Z24" s="9">
-        <f t="shared" si="20"/>
-        <v>21.538</v>
+        <v>29.5</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="9">
         <f t="shared" si="21"/>
-        <v>70.906000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="AC24" s="9">
         <f t="shared" si="22"/>
-        <v>21.538</v>
+        <v>29.5</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="23"/>
-        <v>128.0301</v>
+        <v>148.875</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="9">
         <f t="shared" si="24"/>
-        <v>92.444000000000003</v>
+        <v>107</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
@@ -3680,32 +3639,30 @@
         <v>0</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" si="19"/>
-        <v>2.1002239999999999</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="9">
-        <f t="shared" si="20"/>
-        <v>0.63795199999999985</v>
+        <v>6.5</v>
       </c>
       <c r="AA25" s="3">
         <v>0</v>
       </c>
       <c r="AB25" s="9">
         <f t="shared" si="21"/>
-        <v>2.1002239999999999</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="9">
         <f t="shared" si="22"/>
-        <v>0.63795199999999985</v>
+        <v>6.5</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="23"/>
-        <v>3.7922304000000002</v>
+        <v>13.8</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="9">
         <f t="shared" si="24"/>
-        <v>2.7381759999999997</v>
+        <v>9.5</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
@@ -3785,32 +3742,30 @@
         <v>0</v>
       </c>
       <c r="Y26" s="9">
-        <f t="shared" si="19"/>
-        <v>19.337999999999997</v>
+        <v>15</v>
       </c>
       <c r="Z26" s="9">
-        <f t="shared" si="20"/>
-        <v>5.8739999999999997</v>
+        <v>13</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
       <c r="AB26" s="9">
         <f t="shared" si="21"/>
-        <v>19.337999999999997</v>
+        <v>15</v>
       </c>
       <c r="AC26" s="9">
         <f t="shared" si="22"/>
-        <v>5.8739999999999997</v>
+        <v>13</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="23"/>
-        <v>34.917299999999997</v>
+        <v>39.75</v>
       </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="9">
         <f t="shared" si="24"/>
-        <v>25.211999999999996</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.35">
@@ -3888,32 +3843,30 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" si="19"/>
-        <v>5.7006079999999999</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="9">
-        <f t="shared" si="20"/>
-        <v>1.7315839999999998</v>
+        <v>6.5</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
       <c r="AB27" s="9">
         <f t="shared" si="21"/>
-        <v>5.7006079999999999</v>
+        <v>5</v>
       </c>
       <c r="AC27" s="9">
         <f t="shared" si="22"/>
-        <v>1.7315839999999998</v>
+        <v>6.5</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="23"/>
-        <v>10.2931968</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" s="8"/>
       <c r="AF27" s="9">
         <f t="shared" si="24"/>
-        <v>7.4321919999999997</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.35">
@@ -3992,32 +3945,30 @@
         <v>0</v>
       </c>
       <c r="Y28" s="9">
-        <f t="shared" si="19"/>
-        <v>70.906000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="Z28" s="9">
-        <f t="shared" si="20"/>
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AA28" s="3">
         <v>0</v>
       </c>
       <c r="AB28" s="9">
         <f t="shared" si="21"/>
-        <v>70.906000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="AC28" s="9">
         <f t="shared" si="22"/>
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="23"/>
-        <v>128.0301</v>
+        <v>148.125</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="9">
         <f t="shared" si="24"/>
-        <v>92.444000000000003</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.35">
@@ -4095,32 +4046,30 @@
         <v>0</v>
       </c>
       <c r="Y29" s="9">
-        <f t="shared" si="19"/>
-        <v>56.256</v>
+        <v>41.5</v>
       </c>
       <c r="Z29" s="9">
-        <f t="shared" si="20"/>
-        <v>17.088000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
       <c r="AB29" s="9">
         <f t="shared" si="21"/>
-        <v>56.256</v>
+        <v>41.5</v>
       </c>
       <c r="AC29" s="9">
         <f t="shared" si="22"/>
-        <v>17.088000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="23"/>
-        <v>101.5776</v>
+        <v>79.275000000000006</v>
       </c>
       <c r="AE29" s="8"/>
       <c r="AF29" s="9">
         <f t="shared" si="24"/>
-        <v>73.343999999999994</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.35">
@@ -4199,32 +4148,30 @@
         <v>0</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="19"/>
-        <v>93.466999999999999</v>
+        <v>95</v>
       </c>
       <c r="Z30" s="9">
-        <f t="shared" si="20"/>
-        <v>28.390999999999998</v>
+        <v>31.5</v>
       </c>
       <c r="AA30" s="3">
         <v>0</v>
       </c>
       <c r="AB30" s="9">
         <f t="shared" si="21"/>
-        <v>93.466999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC30" s="9">
         <f t="shared" si="22"/>
-        <v>28.390999999999998</v>
+        <v>31.5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="23"/>
-        <v>168.76695000000001</v>
+        <v>175.5</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="9">
         <f t="shared" si="24"/>
-        <v>121.858</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.35">
@@ -4300,32 +4247,30 @@
       </c>
       <c r="X31" s="7"/>
       <c r="Y31" s="9">
-        <f t="shared" si="19"/>
-        <v>27.752959999999998</v>
+        <v>21</v>
       </c>
       <c r="Z31" s="9">
-        <f t="shared" si="20"/>
-        <v>8.4300800000000002</v>
+        <v>10</v>
       </c>
       <c r="AA31" s="3">
         <v>0</v>
       </c>
       <c r="AB31" s="9">
         <f t="shared" si="21"/>
-        <v>27.752959999999998</v>
+        <v>21</v>
       </c>
       <c r="AC31" s="9">
         <f t="shared" si="22"/>
-        <v>8.4300800000000002</v>
+        <v>10</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="23"/>
-        <v>50.111615999999998</v>
+        <v>43.35</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="9">
         <f t="shared" si="24"/>
-        <v>36.183039999999998</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.35">
@@ -4399,14 +4344,8 @@
       <c r="X32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Y32" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -4504,32 +4443,30 @@
         <v>0</v>
       </c>
       <c r="Y33" s="9">
-        <f t="shared" si="19"/>
-        <v>32.054200000000002</v>
+        <v>19</v>
       </c>
       <c r="Z33" s="9">
-        <f t="shared" si="20"/>
-        <v>9.7365999999999993</v>
+        <v>5</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
       <c r="AB33" s="9">
         <f t="shared" si="21"/>
-        <v>32.054200000000002</v>
+        <v>19</v>
       </c>
       <c r="AC33" s="9">
         <f t="shared" si="22"/>
-        <v>9.7365999999999993</v>
+        <v>5</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="23"/>
-        <v>57.878070000000008</v>
+        <v>33.150000000000006</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="9">
         <f t="shared" si="24"/>
-        <v>41.790800000000004</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
@@ -4607,32 +4544,30 @@
         <v>-0.12</v>
       </c>
       <c r="Y34" s="9">
-        <f t="shared" si="19"/>
-        <v>85.087199999999996</v>
+        <v>105</v>
       </c>
       <c r="Z34" s="9">
-        <f t="shared" si="20"/>
-        <v>25.845599999999997</v>
+        <v>30</v>
       </c>
       <c r="AA34" s="3">
         <v>0</v>
       </c>
       <c r="AB34" s="9">
         <f t="shared" si="21"/>
-        <v>85.087199999999996</v>
+        <v>105</v>
       </c>
       <c r="AC34" s="9">
         <f t="shared" si="22"/>
-        <v>25.845599999999997</v>
+        <v>30</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="23"/>
-        <v>153.63612000000001</v>
+        <v>186.75</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="9">
         <f t="shared" si="24"/>
-        <v>110.93279999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
@@ -4711,32 +4646,30 @@
         <v>0</v>
       </c>
       <c r="Y35" s="9">
-        <f t="shared" si="19"/>
-        <v>67.307959999999994</v>
+        <v>47</v>
       </c>
       <c r="Z35" s="9">
-        <f t="shared" si="20"/>
-        <v>20.445080000000001</v>
+        <v>17</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
       <c r="AB35" s="9">
         <f t="shared" si="21"/>
-        <v>67.307959999999994</v>
+        <v>47</v>
       </c>
       <c r="AC35" s="9">
         <f t="shared" si="22"/>
-        <v>20.445080000000001</v>
+        <v>17</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="23"/>
-        <v>121.533366</v>
+        <v>88.95</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="9">
         <f t="shared" si="24"/>
-        <v>87.753039999999999</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
@@ -4814,32 +4747,30 @@
         <v>0</v>
       </c>
       <c r="Y36" s="9">
-        <f t="shared" si="19"/>
-        <v>93.466999999999999</v>
+        <v>93</v>
       </c>
       <c r="Z36" s="9">
-        <f t="shared" si="20"/>
-        <v>28.390999999999998</v>
+        <v>33</v>
       </c>
       <c r="AA36" s="3">
         <v>0</v>
       </c>
       <c r="AB36" s="9">
         <f t="shared" si="21"/>
-        <v>93.466999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC36" s="9">
         <f t="shared" si="22"/>
-        <v>28.390999999999998</v>
+        <v>33</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="23"/>
-        <v>168.76695000000001</v>
+        <v>175.05</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="9">
         <f t="shared" si="24"/>
-        <v>121.858</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
@@ -4918,32 +4849,30 @@
         <v>0</v>
       </c>
       <c r="Y37" s="9">
-        <f t="shared" si="19"/>
-        <v>2.1002239999999999</v>
+        <v>2</v>
       </c>
       <c r="Z37" s="9">
-        <f t="shared" si="20"/>
-        <v>0.63795199999999985</v>
+        <v>6.3</v>
       </c>
       <c r="AA37" s="3">
         <v>0</v>
       </c>
       <c r="AB37" s="9">
         <f t="shared" si="21"/>
-        <v>2.1002239999999999</v>
+        <v>2</v>
       </c>
       <c r="AC37" s="9">
         <f t="shared" si="22"/>
-        <v>0.63795199999999985</v>
+        <v>6.3</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="23"/>
-        <v>3.7922304000000002</v>
+        <v>12.149999999999999</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="9">
         <f t="shared" si="24"/>
-        <v>2.7381759999999997</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
@@ -5021,32 +4950,30 @@
         <v>0</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" si="19"/>
-        <v>19.337999999999997</v>
+        <v>25</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="20"/>
-        <v>5.8739999999999997</v>
+        <v>15</v>
       </c>
       <c r="AA38" s="3">
         <v>0</v>
       </c>
       <c r="AB38" s="9">
         <f t="shared" si="21"/>
-        <v>19.337999999999997</v>
+        <v>25</v>
       </c>
       <c r="AC38" s="9">
         <f t="shared" si="22"/>
-        <v>5.8739999999999997</v>
+        <v>15</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="23"/>
-        <v>34.917299999999997</v>
+        <v>56.25</v>
       </c>
       <c r="AE38" s="8"/>
       <c r="AF38" s="9">
         <f t="shared" si="24"/>
-        <v>25.211999999999996</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
@@ -5125,32 +5052,30 @@
         <v>0</v>
       </c>
       <c r="Y39" s="9">
-        <f t="shared" si="19"/>
-        <v>-5.5798920000000001</v>
+        <v>4</v>
       </c>
       <c r="Z39" s="9">
-        <f t="shared" si="20"/>
-        <v>-1.6949160000000001</v>
+        <v>6.5</v>
       </c>
       <c r="AA39" s="3">
         <v>0</v>
       </c>
       <c r="AB39" s="9">
         <f t="shared" si="21"/>
-        <v>-5.5798920000000001</v>
+        <v>4</v>
       </c>
       <c r="AC39" s="9">
         <f t="shared" si="22"/>
-        <v>-1.6949160000000001</v>
+        <v>6.5</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="23"/>
-        <v>-10.075228200000002</v>
+        <v>15.15</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="9">
         <f t="shared" si="24"/>
-        <v>-7.2748080000000002</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
@@ -5228,32 +5153,30 @@
         <v>0.25</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" si="19"/>
-        <v>112.80500000000001</v>
+        <v>92.5</v>
       </c>
       <c r="Z40" s="9">
-        <f t="shared" si="20"/>
-        <v>34.265000000000001</v>
+        <v>31</v>
       </c>
       <c r="AA40" s="3">
         <v>0</v>
       </c>
       <c r="AB40" s="9">
         <f t="shared" si="21"/>
-        <v>112.80500000000001</v>
+        <v>92.5</v>
       </c>
       <c r="AC40" s="9">
         <f t="shared" si="22"/>
-        <v>34.265000000000001</v>
+        <v>31</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="23"/>
-        <v>203.68425000000002</v>
+        <v>171.375</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="9">
         <f t="shared" si="24"/>
-        <v>147.07</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
@@ -5332,32 +5255,30 @@
         <v>0</v>
       </c>
       <c r="Y41" s="9">
-        <f t="shared" si="19"/>
-        <v>38.248219999999996</v>
+        <v>44</v>
       </c>
       <c r="Z41" s="9">
-        <f t="shared" si="20"/>
-        <v>11.618059999999998</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="9">
         <f t="shared" si="21"/>
-        <v>38.248219999999996</v>
+        <v>44</v>
       </c>
       <c r="AC41" s="9">
         <f t="shared" si="22"/>
-        <v>11.618059999999998</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="23"/>
-        <v>69.062186999999994</v>
+        <v>83.550000000000011</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="9">
         <f t="shared" si="24"/>
-        <v>49.866279999999996</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
@@ -5435,32 +5356,30 @@
         <v>0.16</v>
       </c>
       <c r="Y42" s="9">
-        <f t="shared" si="19"/>
-        <v>108.42171999999999</v>
+        <v>100</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" si="20"/>
-        <v>32.93356</v>
+        <v>33.5</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
       <c r="AB42" s="9">
         <f t="shared" si="21"/>
-        <v>108.42171999999999</v>
+        <v>100</v>
       </c>
       <c r="AC42" s="9">
         <f t="shared" si="22"/>
-        <v>32.93356</v>
+        <v>33.5</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="23"/>
-        <v>195.76966200000001</v>
+        <v>185.25</v>
       </c>
       <c r="AE42" s="8"/>
       <c r="AF42" s="9">
         <f t="shared" si="24"/>
-        <v>141.35527999999999</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
@@ -5539,32 +5458,30 @@
         <v>0</v>
       </c>
       <c r="Y43" s="9">
-        <f t="shared" si="19"/>
-        <v>18.77544</v>
+        <v>20</v>
       </c>
       <c r="Z43" s="9">
-        <f t="shared" si="20"/>
-        <v>5.7031200000000002</v>
+        <v>10</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
       <c r="AB43" s="9">
         <f t="shared" si="21"/>
-        <v>18.77544</v>
+        <v>20</v>
       </c>
       <c r="AC43" s="9">
         <f t="shared" si="22"/>
-        <v>5.7031200000000002</v>
+        <v>10</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="23"/>
-        <v>33.901524000000002</v>
+        <v>42</v>
       </c>
       <c r="AE43" s="8"/>
       <c r="AF43" s="9">
         <f t="shared" si="24"/>
-        <v>24.478560000000002</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
@@ -5638,14 +5555,8 @@
       <c r="X44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Y44" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
@@ -5740,32 +5651,30 @@
       </c>
       <c r="X45" s="7"/>
       <c r="Y45" s="9">
-        <f t="shared" si="19"/>
-        <v>24.75264</v>
+        <v>19</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" si="20"/>
-        <v>7.5187200000000001</v>
+        <v>5</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="9">
         <f t="shared" si="21"/>
-        <v>24.75264</v>
+        <v>19</v>
       </c>
       <c r="AC45" s="9">
         <f t="shared" si="22"/>
-        <v>7.5187200000000001</v>
+        <v>5</v>
       </c>
       <c r="AD45" s="8">
         <f t="shared" si="23"/>
-        <v>44.694143999999994</v>
+        <v>33.150000000000006</v>
       </c>
       <c r="AE45" s="8"/>
       <c r="AF45" s="9">
         <f t="shared" si="24"/>
-        <v>32.271360000000001</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
@@ -5844,32 +5753,30 @@
         <v>0</v>
       </c>
       <c r="Y46" s="9">
-        <f t="shared" si="19"/>
-        <v>96.69</v>
+        <v>107.5</v>
       </c>
       <c r="Z46" s="9">
-        <f t="shared" si="20"/>
-        <v>29.369999999999997</v>
+        <v>32.5</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
       <c r="AB46" s="9">
         <f t="shared" si="21"/>
-        <v>96.69</v>
+        <v>107.5</v>
       </c>
       <c r="AC46" s="9">
         <f t="shared" si="22"/>
-        <v>29.369999999999997</v>
+        <v>32.5</v>
       </c>
       <c r="AD46" s="8">
         <f t="shared" si="23"/>
-        <v>174.5865</v>
+        <v>193.875</v>
       </c>
       <c r="AE46" s="8"/>
       <c r="AF46" s="9">
         <f t="shared" si="24"/>
-        <v>126.06</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
@@ -5947,32 +5854,30 @@
         <v>0.13</v>
       </c>
       <c r="Y47" s="9">
-        <f t="shared" si="19"/>
-        <v>65.256959999999992</v>
+        <v>50.5</v>
       </c>
       <c r="Z47" s="9">
-        <f t="shared" si="20"/>
-        <v>19.82208</v>
+        <v>18</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
       <c r="AB47" s="9">
         <f t="shared" si="21"/>
-        <v>65.256959999999992</v>
+        <v>50.5</v>
       </c>
       <c r="AC47" s="9">
         <f t="shared" si="22"/>
-        <v>19.82208</v>
+        <v>18</v>
       </c>
       <c r="AD47" s="8">
         <f t="shared" si="23"/>
-        <v>117.830016</v>
+        <v>95.175000000000011</v>
       </c>
       <c r="AE47" s="8"/>
       <c r="AF47" s="9">
         <f t="shared" si="24"/>
-        <v>85.079039999999992</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
@@ -6051,32 +5956,30 @@
         <v>0</v>
       </c>
       <c r="Y48" s="9">
-        <f t="shared" si="19"/>
-        <v>93.466999999999999</v>
+        <v>95</v>
       </c>
       <c r="Z48" s="9">
-        <f t="shared" si="20"/>
-        <v>28.390999999999998</v>
+        <v>34</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
       <c r="AB48" s="9">
         <f t="shared" si="21"/>
-        <v>93.466999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC48" s="9">
         <f t="shared" si="22"/>
-        <v>28.390999999999998</v>
+        <v>34</v>
       </c>
       <c r="AD48" s="8">
         <f t="shared" si="23"/>
-        <v>168.76695000000001</v>
+        <v>179.25</v>
       </c>
       <c r="AE48" s="8"/>
       <c r="AF48" s="9">
         <f t="shared" si="24"/>
-        <v>121.858</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
@@ -6154,32 +6057,30 @@
         <v>0</v>
       </c>
       <c r="Y49" s="9">
-        <f t="shared" si="19"/>
-        <v>2.1002239999999999</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="9">
-        <f t="shared" si="20"/>
-        <v>0.63795199999999985</v>
+        <v>5</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
       <c r="AB49" s="9">
         <f t="shared" si="21"/>
-        <v>2.1002239999999999</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="9">
         <f t="shared" si="22"/>
-        <v>0.63795199999999985</v>
+        <v>5</v>
       </c>
       <c r="AD49" s="8">
         <f t="shared" si="23"/>
-        <v>3.7922304000000002</v>
+        <v>7.5</v>
       </c>
       <c r="AE49" s="8"/>
       <c r="AF49" s="9">
         <f t="shared" si="24"/>
-        <v>2.7381759999999997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
@@ -6258,32 +6159,30 @@
         <v>0</v>
       </c>
       <c r="Y50" s="9">
-        <f t="shared" si="19"/>
-        <v>19.337999999999997</v>
+        <v>15</v>
       </c>
       <c r="Z50" s="9">
-        <f t="shared" si="20"/>
-        <v>5.8739999999999997</v>
+        <v>13</v>
       </c>
       <c r="AA50" s="3">
         <v>0</v>
       </c>
       <c r="AB50" s="9">
         <f t="shared" si="21"/>
-        <v>19.337999999999997</v>
+        <v>15</v>
       </c>
       <c r="AC50" s="9">
         <f t="shared" si="22"/>
-        <v>5.8739999999999997</v>
+        <v>13</v>
       </c>
       <c r="AD50" s="8">
         <f t="shared" si="23"/>
-        <v>34.917299999999997</v>
+        <v>39.75</v>
       </c>
       <c r="AE50" s="8"/>
       <c r="AF50" s="9">
         <f t="shared" si="24"/>
-        <v>25.211999999999996</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
@@ -6361,32 +6260,30 @@
         <v>0</v>
       </c>
       <c r="Y51" s="9">
-        <f t="shared" si="19"/>
-        <v>5.7006079999999999</v>
+        <v>5</v>
       </c>
       <c r="Z51" s="9">
-        <f t="shared" si="20"/>
-        <v>1.7315839999999998</v>
+        <v>6</v>
       </c>
       <c r="AA51" s="3">
         <v>0</v>
       </c>
       <c r="AB51" s="9">
         <f t="shared" si="21"/>
-        <v>5.7006079999999999</v>
+        <v>5</v>
       </c>
       <c r="AC51" s="9">
         <f t="shared" si="22"/>
-        <v>1.7315839999999998</v>
+        <v>6</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="23"/>
-        <v>10.2931968</v>
+        <v>15.75</v>
       </c>
       <c r="AE51" s="8"/>
       <c r="AF51" s="9">
         <f t="shared" si="24"/>
-        <v>7.4321919999999997</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
@@ -6465,32 +6362,30 @@
         <v>0</v>
       </c>
       <c r="Y52" s="9">
-        <f t="shared" si="19"/>
-        <v>83.798000000000002</v>
+        <v>82.5</v>
       </c>
       <c r="Z52" s="9">
-        <f t="shared" si="20"/>
-        <v>25.453999999999997</v>
+        <v>28.5</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
       <c r="AB52" s="9">
         <f t="shared" si="21"/>
-        <v>83.798000000000002</v>
+        <v>82.5</v>
       </c>
       <c r="AC52" s="9">
         <f t="shared" si="22"/>
-        <v>25.453999999999997</v>
+        <v>28.5</v>
       </c>
       <c r="AD52" s="8">
         <f t="shared" si="23"/>
-        <v>151.3083</v>
+        <v>154.125</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="9">
         <f t="shared" si="24"/>
-        <v>109.252</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
@@ -6568,32 +6463,30 @@
         <v>-0.1</v>
       </c>
       <c r="Y53" s="9">
-        <f t="shared" si="19"/>
-        <v>56.256</v>
+        <v>43</v>
       </c>
       <c r="Z53" s="9">
-        <f t="shared" si="20"/>
-        <v>17.088000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="AA53" s="3">
         <v>0</v>
       </c>
       <c r="AB53" s="9">
         <f t="shared" si="21"/>
-        <v>56.256</v>
+        <v>43</v>
       </c>
       <c r="AC53" s="9">
         <f t="shared" si="22"/>
-        <v>17.088000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="AD53" s="8">
         <f t="shared" si="23"/>
-        <v>101.5776</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="9">
         <f t="shared" si="24"/>
-        <v>73.343999999999994</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
@@ -6672,32 +6565,30 @@
         <v>0</v>
       </c>
       <c r="Y54" s="9">
-        <f t="shared" si="19"/>
-        <v>93.466999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="Z54" s="9">
-        <f t="shared" si="20"/>
-        <v>28.390999999999998</v>
+        <v>31</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
       <c r="AB54" s="9">
         <f t="shared" si="21"/>
-        <v>93.466999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC54" s="9">
         <f t="shared" si="22"/>
-        <v>28.390999999999998</v>
+        <v>31</v>
       </c>
       <c r="AD54" s="8">
         <f t="shared" si="23"/>
-        <v>168.76695000000001</v>
+        <v>171.375</v>
       </c>
       <c r="AE54" s="8"/>
       <c r="AF54" s="9">
         <f t="shared" si="24"/>
-        <v>121.858</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
@@ -6775,32 +6666,30 @@
         <v>0.15</v>
       </c>
       <c r="Y55" s="9">
-        <f t="shared" si="19"/>
-        <v>20.25216</v>
+        <v>16</v>
       </c>
       <c r="Z55" s="9">
-        <f t="shared" si="20"/>
-        <v>6.1516799999999998</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AA55" s="3">
         <v>0</v>
       </c>
       <c r="AB55" s="9">
         <f t="shared" si="21"/>
-        <v>20.25216</v>
+        <v>16</v>
       </c>
       <c r="AC55" s="9">
         <f t="shared" si="22"/>
-        <v>6.1516799999999998</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD55" s="8">
         <f t="shared" si="23"/>
-        <v>36.567936000000003</v>
+        <v>33.9</v>
       </c>
       <c r="AE55" s="8"/>
       <c r="AF55" s="9">
         <f t="shared" si="24"/>
-        <v>26.403839999999999</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
@@ -6875,32 +6764,30 @@
         <v>48</v>
       </c>
       <c r="Y56" s="9">
-        <f t="shared" si="19"/>
-        <v>-1.518912</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="20"/>
-        <v>-0.46137599999999995</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="3">
         <v>0</v>
       </c>
       <c r="AB56" s="9">
         <f t="shared" si="21"/>
-        <v>-1.518912</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="9">
         <f t="shared" si="22"/>
-        <v>-0.46137599999999995</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="8">
         <f t="shared" si="23"/>
-        <v>-2.7425951999999998</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="8"/>
       <c r="AF56" s="9">
         <f t="shared" si="24"/>
-        <v>-1.980288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
@@ -6979,32 +6866,30 @@
         <v>0</v>
       </c>
       <c r="Y57" s="9">
-        <f t="shared" si="19"/>
-        <v>29.253119999999999</v>
+        <v>22</v>
       </c>
       <c r="Z57" s="9">
-        <f t="shared" si="20"/>
-        <v>8.8857599999999994</v>
+        <v>10</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="9">
         <f t="shared" si="21"/>
-        <v>29.253119999999999</v>
+        <v>22</v>
       </c>
       <c r="AC57" s="9">
         <f t="shared" si="22"/>
-        <v>8.8857599999999994</v>
+        <v>10</v>
       </c>
       <c r="AD57" s="8">
         <f t="shared" si="23"/>
-        <v>52.820352</v>
+        <v>44.7</v>
       </c>
       <c r="AE57" s="8"/>
       <c r="AF57" s="9">
         <f t="shared" si="24"/>
-        <v>38.13888</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
@@ -7082,32 +6967,30 @@
         <v>0</v>
       </c>
       <c r="Y58" s="9">
-        <f t="shared" si="19"/>
-        <v>96.69</v>
+        <v>90</v>
       </c>
       <c r="Z58" s="9">
-        <f t="shared" si="20"/>
-        <v>29.369999999999997</v>
+        <v>30</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
       <c r="AB58" s="9">
         <f t="shared" si="21"/>
-        <v>96.69</v>
+        <v>90</v>
       </c>
       <c r="AC58" s="9">
         <f t="shared" si="22"/>
-        <v>29.369999999999997</v>
+        <v>30</v>
       </c>
       <c r="AD58" s="8">
         <f t="shared" si="23"/>
-        <v>174.5865</v>
+        <v>166.5</v>
       </c>
       <c r="AE58" s="8"/>
       <c r="AF58" s="9">
         <f t="shared" si="24"/>
-        <v>126.06</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
@@ -7186,32 +7069,30 @@
         <v>0</v>
       </c>
       <c r="Y59" s="9">
-        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C59)),V59+X59*V59,IF(A58&lt;A59,V59-X61*V61/2,IF(A59&lt;A61,V59-(X58*V58)/2,V59-(X61*V61+X58*V58)/2))),0)</f>
-        <v>51.00544</v>
+        <v>39</v>
       </c>
       <c r="Z59" s="9">
-        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C59)),W59+X59*W59,IF(A58&lt;A59,W59-X61*W61/2,IF(A59&lt;A61,W59-(X58*W58)/2,W59-(X61*W61+X58*W58)/2))),0)</f>
-        <v>15.493120000000001</v>
+        <v>14</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
       <c r="AB59" s="9">
         <f t="shared" si="21"/>
-        <v>51.00544</v>
+        <v>39</v>
       </c>
       <c r="AC59" s="9">
         <f t="shared" si="22"/>
-        <v>15.493120000000001</v>
+        <v>14</v>
       </c>
       <c r="AD59" s="8">
         <f t="shared" si="23"/>
-        <v>92.097024000000005</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="AE59" s="8"/>
       <c r="AF59" s="9">
         <f t="shared" si="24"/>
-        <v>66.498559999999998</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
@@ -7392,32 +7273,30 @@
         <v>0</v>
       </c>
       <c r="Y61" s="9">
-        <f t="shared" si="50"/>
-        <v>29.651599999999998</v>
+        <v>26.3</v>
       </c>
       <c r="Z61" s="9">
-        <f t="shared" si="51"/>
-        <v>9.0068000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="9">
         <f t="shared" si="52"/>
-        <v>29.651599999999998</v>
+        <v>26.3</v>
       </c>
       <c r="AC61" s="9">
         <f t="shared" si="53"/>
-        <v>9.0068000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD61" s="8">
         <f t="shared" si="54"/>
-        <v>53.539860000000004</v>
+        <v>49.005000000000003</v>
       </c>
       <c r="AE61" s="8"/>
       <c r="AF61" s="9">
         <f t="shared" si="55"/>
-        <v>38.6584</v>
+        <v>35.299999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
@@ -7496,32 +7375,30 @@
         <v>0</v>
       </c>
       <c r="Y62" s="9">
-        <f t="shared" si="50"/>
-        <v>56.256</v>
+        <v>49</v>
       </c>
       <c r="Z62" s="9">
-        <f t="shared" si="51"/>
-        <v>17.088000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
       </c>
       <c r="AB62" s="9">
         <f t="shared" si="52"/>
-        <v>56.256</v>
+        <v>49</v>
       </c>
       <c r="AC62" s="9">
         <f t="shared" si="53"/>
-        <v>17.088000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AD62" s="8">
         <f t="shared" si="54"/>
-        <v>101.5776</v>
+        <v>89.4</v>
       </c>
       <c r="AE62" s="8"/>
       <c r="AF62" s="9">
         <f t="shared" si="55"/>
-        <v>73.343999999999994</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
@@ -7724,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -7799,35 +7676,33 @@
         <v>0</v>
       </c>
       <c r="Y65" s="9">
-        <f t="shared" si="50"/>
-        <v>32.253439999999998</v>
+        <v>24</v>
       </c>
       <c r="Z65" s="9">
-        <f t="shared" si="51"/>
-        <v>9.7971199999999996</v>
+        <v>10</v>
       </c>
       <c r="AA65" s="3">
         <v>0</v>
       </c>
       <c r="AB65" s="9">
         <f t="shared" si="52"/>
-        <v>32.253439999999998</v>
+        <v>24</v>
       </c>
       <c r="AC65" s="9">
         <f t="shared" si="53"/>
-        <v>9.7971199999999996</v>
+        <v>10</v>
       </c>
       <c r="AD65" s="8">
         <f t="shared" si="54"/>
-        <v>58.237824000000003</v>
+        <v>47.400000000000006</v>
       </c>
       <c r="AE65" s="8"/>
       <c r="AF65" s="9">
         <f t="shared" si="55"/>
-        <v>42.050559999999997</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -7900,35 +7775,33 @@
       </c>
       <c r="X66" s="7"/>
       <c r="Y66" s="9">
-        <f t="shared" si="50"/>
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="Z66" s="9">
-        <f t="shared" si="51"/>
-        <v>29.369999999999997</v>
+        <v>26</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
       </c>
       <c r="AB66" s="9">
         <f t="shared" si="52"/>
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="AC66" s="9">
         <f t="shared" si="53"/>
-        <v>29.369999999999997</v>
+        <v>26</v>
       </c>
       <c r="AD66" s="8">
         <f t="shared" si="54"/>
-        <v>174.5865</v>
+        <v>170.625</v>
       </c>
       <c r="AE66" s="8"/>
       <c r="AF66" s="9">
         <f t="shared" si="55"/>
-        <v>126.06</v>
+        <v>123.5</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -8003,131 +7876,90 @@
         <v>0</v>
       </c>
       <c r="Y67" s="9">
-        <f t="shared" si="50"/>
-        <v>45.754879999999993</v>
+        <v>35</v>
       </c>
       <c r="Z67" s="9">
-        <f t="shared" si="51"/>
-        <v>13.898239999999999</v>
+        <v>13</v>
       </c>
       <c r="AA67" s="3">
         <v>0</v>
       </c>
       <c r="AB67" s="9">
         <f t="shared" si="52"/>
-        <v>45.754879999999993</v>
+        <v>35</v>
       </c>
       <c r="AC67" s="9">
         <f t="shared" si="53"/>
-        <v>13.898239999999999</v>
+        <v>13</v>
       </c>
       <c r="AD67" s="8">
         <f t="shared" si="54"/>
-        <v>82.616447999999991</v>
+        <v>66.75</v>
       </c>
       <c r="AE67" s="8"/>
       <c r="AF67" s="9">
         <f t="shared" si="55"/>
-        <v>59.653119999999994</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V68" s="9"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="12"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V69" s="9"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="12"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V70" s="9"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
-      <c r="AF70" s="10"/>
-      <c r="AG70" s="12"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="W71" s="12"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
-      <c r="AG71" s="12"/>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="X71" s="7"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="12"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X3:X6 X9:X19 X21:X31 X33:X43 X65:X71 X45:X55 X57:X59 X61:X62">
+  <conditionalFormatting sqref="X3:X6 X9:X19 X21:X31 X33:X43 X45:X55 X57:X59 X61:X62 X65:X71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A3="Travée"</formula>
     </cfRule>
